--- a/va_facility_data_2025-02-20/Bakersfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bakersfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bakersfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bakersfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb4454ed3922a4598956cf7a14cd5677d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfb4d41fc80e140d2b70d29dd00232a00"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2eb22390fda743c294f3c46816fda174"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfeec3e1218cb4ad5a804d5266f9e0e50"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc749db425cf64f24a050028030e85f8a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R318417fee3e34d39a9be6a3bc8f7776c"/>
   </x:sheets>
 </x:workbook>
 </file>
